--- a/Section 3/3. Making a perfect bar chart - Excel demo file.xlsx
+++ b/Section 3/3. Making a perfect bar chart - Excel demo file.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\OneDrive\Documents\Courses\Perfect charts in Excel\3. Making a perfect Bar Chart\3.4. Excel Demo Simple bar chart with data labels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\OneDrive\Documents\Courses\Perfect charts in Excel\Perfect-Excel-Charts\Section 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="8_{D27E0088-55F3-4B4B-9D17-9D0BC01803EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F9B74E8D-7185-4631-87C0-BFC5B2705DA6}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{D27E0088-55F3-4B4B-9D17-9D0BC01803EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{CCAD4CFA-3119-4D66-AEB4-57A639CBD35E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" activeTab="1" xr2:uid="{CE95B945-CE84-4400-8769-9A726DD0DC15}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" activeTab="2" xr2:uid="{CE95B945-CE84-4400-8769-9A726DD0DC15}"/>
   </bookViews>
   <sheets>
     <sheet name="General Motors" sheetId="1" r:id="rId1"/>
     <sheet name="Fossil Fuel Denmark" sheetId="2" r:id="rId2"/>
+    <sheet name="Sources" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -103,6 +104,30 @@
   </si>
   <si>
     <t>Non-fosil fule share</t>
+  </si>
+  <si>
+    <t>General Motors 2017 annual report:</t>
+  </si>
+  <si>
+    <t>https://www.gm.com/content/dam/gm/en_us/english/Group4/InvestorsPDFDocuments/02-pdfs/10-K.pdf</t>
+  </si>
+  <si>
+    <t>www.statistikbanken.dk/ENE3H</t>
+  </si>
+  <si>
+    <t>Fuel type by industry in Denmark:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busiest container ports: </t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_busiest_container_ports</t>
+  </si>
+  <si>
+    <t>Busiest airports by passenger traffic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_busiest_airports_by_passenger_traffic</t>
   </si>
 </sst>
 </file>
@@ -4138,7 +4163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4956158-1E55-44BB-AA94-40135DFA5D60}">
   <dimension ref="B3:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
@@ -4425,4 +4450,59 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212B6C35-5777-426F-97EA-86D08866BAE6}">
+  <dimension ref="B2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>